--- a/results/mp/logistic/corona/confidence/42/topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,75 +55,75 @@
     <t>no</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -133,16 +133,25 @@
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>to</t>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4603174603174603</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3701550387596899</v>
+        <v>0.3779069767441861</v>
       </c>
       <c r="C5">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2013422818791946</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -769,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1583333333333333</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,69 +796,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L7">
+        <v>86</v>
+      </c>
+      <c r="M7">
+        <v>86</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L7">
-        <v>49</v>
-      </c>
-      <c r="M7">
-        <v>49</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.0113732097725358</v>
-      </c>
-      <c r="C8">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>0.16</v>
-      </c>
-      <c r="F8">
-        <v>0.84</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2347</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,21 +846,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,21 +872,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,21 +898,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7875</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.783289817232376</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7872340425531915</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7708333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1121,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6147058823529412</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5846153846153846</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1199,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5813953488372093</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5774058577405857</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>101</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5694915254237288</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L25">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="M25">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5531914893617021</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4857142857142857</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,85 +1340,189 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4831460674157304</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L28">
+        <v>46</v>
+      </c>
+      <c r="M28">
+        <v>46</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>43</v>
-      </c>
-      <c r="M28">
-        <v>43</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>46</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.007420778178900923</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L29">
+        <v>33</v>
+      </c>
+      <c r="M29">
+        <v>33</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>37</v>
-      </c>
-      <c r="M29">
-        <v>47</v>
-      </c>
-      <c r="N29">
-        <v>0.79</v>
-      </c>
-      <c r="O29">
-        <v>0.21</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>4949</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>0.02835696413678065</v>
+      </c>
+      <c r="L30">
+        <v>34</v>
+      </c>
+      <c r="M30">
+        <v>35</v>
+      </c>
+      <c r="N30">
+        <v>0.97</v>
+      </c>
+      <c r="O30">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K30">
-        <v>0.006725417439703154</v>
-      </c>
-      <c r="L30">
-        <v>29</v>
-      </c>
-      <c r="M30">
+      <c r="K31">
+        <v>0.01051840721262209</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>39</v>
+      </c>
+      <c r="N31">
+        <v>0.72</v>
+      </c>
+      <c r="O31">
+        <v>0.28</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.00765838941749826</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>52</v>
+      </c>
+      <c r="N32">
+        <v>0.63</v>
+      </c>
+      <c r="O32">
+        <v>0.37</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.007431211086563567</v>
+      </c>
+      <c r="L33">
+        <v>37</v>
+      </c>
+      <c r="M33">
+        <v>54</v>
+      </c>
+      <c r="N33">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N30">
-        <v>0.64</v>
-      </c>
-      <c r="O30">
-        <v>0.36</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>4283</v>
+      <c r="K34">
+        <v>0.006027610344157107</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>53</v>
+      </c>
+      <c r="N34">
+        <v>0.58</v>
+      </c>
+      <c r="O34">
+        <v>0.42</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>5112</v>
       </c>
     </row>
   </sheetData>
